--- a/static/recursos/produccion-cafe.xlsx
+++ b/static/recursos/produccion-cafe.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felipe Calvo\Online\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felipe Calvo\Online\Documents\GitHub\felipe-calvo.github.io\static\recursos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16BC1BE9-7A23-45AB-9E71-2BED2C0D0AEC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0BCB2D-3D36-4B62-944B-75AE294AE0C4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EAEA724D-A009-4934-AF21-B35FB881B565}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{EAEA724D-A009-4934-AF21-B35FB881B565}"/>
   </bookViews>
   <sheets>
     <sheet name="pareto" sheetId="1" r:id="rId1"/>
     <sheet name="cafeina-1" sheetId="2" r:id="rId2"/>
     <sheet name="cafeina-2" sheetId="3" r:id="rId3"/>
+    <sheet name="THT" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="29">
   <si>
     <t>Stops</t>
   </si>
@@ -109,6 +110,18 @@
   <si>
     <t>Batch nr.</t>
   </si>
+  <si>
+    <t xml:space="preserve">THT </t>
+  </si>
+  <si>
+    <t>Training</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
 </sst>
 </file>
 
@@ -119,7 +132,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,6 +145,21 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -166,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -195,6 +223,18 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -512,7 +552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D4D6D59-18E5-4CBF-BDB2-6D8E32E0A526}">
   <dimension ref="A1:C91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2792,4 +2832,473 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01E62962-406F-4E87-9A4A-F7B98F5C77B0}">
+  <dimension ref="A1:B57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
+        <v>332</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
+        <v>778</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>361</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>794</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>231</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>375</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>841</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>596</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>124</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>224</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
+        <v>138</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
+        <v>317</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <v>121</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
+        <v>506</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
+        <v>412</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
+        <v>163</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <v>241</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
+        <v>910</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
+        <v>411</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
+        <v>448</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="13">
+        <v>538</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="13">
+        <v>211</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="13">
+        <v>212</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
+        <v>160</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
+        <v>613</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="13">
+        <v>142</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="13">
+        <v>155</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="13">
+        <v>173</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="13">
+        <v>116</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="13">
+        <v>428</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="13">
+        <v>197</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="13">
+        <v>96</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="13">
+        <v>246</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="13">
+        <v>335</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="13">
+        <v>141</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="13">
+        <v>191</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="13">
+        <v>351</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="13">
+        <v>213</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="13">
+        <v>113</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="13">
+        <v>140</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="13">
+        <v>160</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="13">
+        <v>206</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="13">
+        <v>119</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="13">
+        <v>74</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="13">
+        <v>222</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="13">
+        <v>108</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="13">
+        <v>270</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="13">
+        <v>61</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="13">
+        <v>78</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="13">
+        <v>270</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="13">
+        <v>195</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="13">
+        <v>211</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="13">
+        <v>134</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="13">
+        <v>71</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="13">
+        <v>197</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="13">
+        <v>228</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/static/recursos/produccion-cafe.xlsx
+++ b/static/recursos/produccion-cafe.xlsx
@@ -8,17 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felipe Calvo\Online\Documents\GitHub\felipe-calvo.github.io\static\recursos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0BCB2D-3D36-4B62-944B-75AE294AE0C4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66810E4-905A-47A1-8D21-AE2535112492}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{EAEA724D-A009-4934-AF21-B35FB881B565}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EAEA724D-A009-4934-AF21-B35FB881B565}"/>
   </bookViews>
   <sheets>
     <sheet name="pareto" sheetId="1" r:id="rId1"/>
     <sheet name="cafeina-1" sheetId="2" r:id="rId2"/>
     <sheet name="cafeina-2" sheetId="3" r:id="rId3"/>
     <sheet name="THT" sheetId="4" r:id="rId4"/>
+    <sheet name="Regresión" sheetId="5" r:id="rId5"/>
+    <sheet name="ANOVA" sheetId="6" r:id="rId6"/>
+    <sheet name="T" sheetId="7" r:id="rId7"/>
+    <sheet name="RegLog" sheetId="8" r:id="rId8"/>
+    <sheet name="Chi" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="61">
   <si>
     <t>Stops</t>
   </si>
@@ -122,6 +127,102 @@
   <si>
     <t>Yes</t>
   </si>
+  <si>
+    <t>Bags</t>
+  </si>
+  <si>
+    <t>Machine 1</t>
+  </si>
+  <si>
+    <t>Machine 2</t>
+  </si>
+  <si>
+    <t>Machine 3</t>
+  </si>
+  <si>
+    <t>Machine 4</t>
+  </si>
+  <si>
+    <t>Stops:</t>
+  </si>
+  <si>
+    <t>Machine</t>
+  </si>
+  <si>
+    <t>Numbers in columns</t>
+  </si>
+  <si>
+    <t>Número de bolsas de café defectuosas en un día</t>
+  </si>
+  <si>
+    <t>Número de paradas de la producción en un día</t>
+  </si>
+  <si>
+    <t>Máquina en que se midió el porcentaje de humedad</t>
+  </si>
+  <si>
+    <t>Humedad medida en un lote de café, medida como porcentaje</t>
+  </si>
+  <si>
+    <t>Fertilizer A</t>
+  </si>
+  <si>
+    <t>Fertilizer B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fertilizer  </t>
+  </si>
+  <si>
+    <t>Numbers in colums</t>
+  </si>
+  <si>
+    <t>Tipo de fertilizante usado</t>
+  </si>
+  <si>
+    <t>Cosecha en kilogramos</t>
+  </si>
+  <si>
+    <t>HoldTime</t>
+  </si>
+  <si>
+    <t>HungUp</t>
+  </si>
+  <si>
+    <t>Calls</t>
+  </si>
+  <si>
+    <t>Specialist</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>Especialista (P,Q, o R) que trató al paciente</t>
+  </si>
+  <si>
+    <t>El departamento (A1 o A4) en el que el paciente estuvo</t>
+  </si>
+  <si>
+    <t>Datos originales</t>
+  </si>
+  <si>
+    <t>Formato evento/intento</t>
+  </si>
 </sst>
 </file>
 
@@ -132,7 +233,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +261,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -194,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -235,6 +341,44 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -552,7 +696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D4D6D59-18E5-4CBF-BDB2-6D8E32E0A526}">
   <dimension ref="A1:C91"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2838,7 +2982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01E62962-406F-4E87-9A4A-F7B98F5C77B0}">
   <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3301,4 +3445,5642 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94FA3FDC-72EA-4DB7-98BA-87619A8DD0F8}">
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="16">
+        <v>16</v>
+      </c>
+      <c r="B2" s="16">
+        <v>5</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="16">
+        <v>21</v>
+      </c>
+      <c r="B3" s="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
+        <v>15</v>
+      </c>
+      <c r="B4" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="16">
+        <v>20</v>
+      </c>
+      <c r="B5" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="16">
+        <v>20</v>
+      </c>
+      <c r="B6" s="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
+        <v>13</v>
+      </c>
+      <c r="B7" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
+        <v>22</v>
+      </c>
+      <c r="B8" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
+        <v>21</v>
+      </c>
+      <c r="B9" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="16">
+        <v>18</v>
+      </c>
+      <c r="B10" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="16">
+        <v>25</v>
+      </c>
+      <c r="B11" s="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
+        <v>18</v>
+      </c>
+      <c r="B12" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="16">
+        <v>18</v>
+      </c>
+      <c r="B13" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
+        <v>13</v>
+      </c>
+      <c r="B14" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="16">
+        <v>26</v>
+      </c>
+      <c r="B15" s="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="16">
+        <v>23</v>
+      </c>
+      <c r="B16" s="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="16">
+        <v>6</v>
+      </c>
+      <c r="B17" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="16">
+        <v>13</v>
+      </c>
+      <c r="B18" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="16">
+        <v>21</v>
+      </c>
+      <c r="B19" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="16">
+        <v>18</v>
+      </c>
+      <c r="B20" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="16">
+        <v>21</v>
+      </c>
+      <c r="B21" s="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="16">
+        <v>18</v>
+      </c>
+      <c r="B22" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="16">
+        <v>17</v>
+      </c>
+      <c r="B23" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="16">
+        <v>16</v>
+      </c>
+      <c r="B24" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="16">
+        <v>19</v>
+      </c>
+      <c r="B25" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="16">
+        <v>21</v>
+      </c>
+      <c r="B26" s="16">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C055E4A5-8A44-405C-AFD5-CCEC5AEFCE42}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="17">
+        <v>11.37</v>
+      </c>
+      <c r="B2" s="17">
+        <v>9.43</v>
+      </c>
+      <c r="C2" s="17">
+        <v>11.27</v>
+      </c>
+      <c r="D2" s="17">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="17">
+        <v>11.31</v>
+      </c>
+      <c r="B3" s="17">
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="C3" s="17">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="D3" s="17">
+        <v>9.58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
+        <v>10.93</v>
+      </c>
+      <c r="B4" s="17">
+        <v>6.61</v>
+      </c>
+      <c r="C4" s="17">
+        <v>11.86</v>
+      </c>
+      <c r="D4" s="17">
+        <v>12.26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="17">
+        <v>13.77</v>
+      </c>
+      <c r="B5" s="17">
+        <v>9.31</v>
+      </c>
+      <c r="C5" s="17">
+        <v>8.77</v>
+      </c>
+      <c r="D5" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
+        <v>14.45</v>
+      </c>
+      <c r="B6" s="17">
+        <v>14.08</v>
+      </c>
+      <c r="C6" s="17">
+        <v>8.44</v>
+      </c>
+      <c r="D6" s="17">
+        <v>8.84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
+        <v>11.8</v>
+      </c>
+      <c r="B7" s="17">
+        <v>9.56</v>
+      </c>
+      <c r="C7" s="17">
+        <v>10.63</v>
+      </c>
+      <c r="D7" s="17">
+        <v>9.49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
+        <v>12.3</v>
+      </c>
+      <c r="B8" s="17">
+        <v>10.99</v>
+      </c>
+      <c r="C8" s="17">
+        <v>13.67</v>
+      </c>
+      <c r="D8" s="17">
+        <v>10.18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="B9" s="17">
+        <v>7.05</v>
+      </c>
+      <c r="C9" s="17">
+        <v>13.02</v>
+      </c>
+      <c r="D9" s="17">
+        <v>8.77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
+        <v>12.28</v>
+      </c>
+      <c r="B10" s="17">
+        <v>11.02</v>
+      </c>
+      <c r="C10" s="17">
+        <v>12.9</v>
+      </c>
+      <c r="D10" s="17">
+        <v>10.07</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
+        <v>11.47</v>
+      </c>
+      <c r="B11" s="17">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="C11" s="17">
+        <v>11.72</v>
+      </c>
+      <c r="D11" s="17">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE9D219-15B6-4BAE-A3E2-D83110B640B8}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="21">
+        <v>7.8</v>
+      </c>
+      <c r="B2" s="21">
+        <v>10.9</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="21">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B3" s="21">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="21">
+        <v>5.7</v>
+      </c>
+      <c r="B4" s="21">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="21">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B5" s="21">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="21">
+        <v>2.9</v>
+      </c>
+      <c r="B6" s="21">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="21">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="B7" s="21">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="21">
+        <v>7.8</v>
+      </c>
+      <c r="B8" s="21">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="21">
+        <v>5.4</v>
+      </c>
+      <c r="B9" s="21">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="21">
+        <v>4.5</v>
+      </c>
+      <c r="B10" s="21">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="21">
+        <v>6.9</v>
+      </c>
+      <c r="B11" s="21">
+        <v>10.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7377B80D-2EBD-47D4-9133-46628D398027}">
+  <dimension ref="A1:F338"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="E1" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="25"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="16">
+        <v>1</v>
+      </c>
+      <c r="B3" s="16">
+        <v>1</v>
+      </c>
+      <c r="C3" s="16">
+        <v>19</v>
+      </c>
+      <c r="E3" s="16">
+        <v>16</v>
+      </c>
+      <c r="F3" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
+        <v>2</v>
+      </c>
+      <c r="B4" s="16">
+        <v>0</v>
+      </c>
+      <c r="C4" s="16">
+        <v>15</v>
+      </c>
+      <c r="E4" s="16">
+        <v>10</v>
+      </c>
+      <c r="F4" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="16">
+        <v>3</v>
+      </c>
+      <c r="B5" s="16">
+        <v>2</v>
+      </c>
+      <c r="C5" s="16">
+        <v>12</v>
+      </c>
+      <c r="E5" s="16">
+        <v>19</v>
+      </c>
+      <c r="F5" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="16">
+        <v>4</v>
+      </c>
+      <c r="B6" s="16">
+        <v>1</v>
+      </c>
+      <c r="C6" s="16">
+        <v>15</v>
+      </c>
+      <c r="E6" s="16">
+        <v>12</v>
+      </c>
+      <c r="F6" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
+        <v>5</v>
+      </c>
+      <c r="B7" s="16">
+        <v>5</v>
+      </c>
+      <c r="C7" s="16">
+        <v>14</v>
+      </c>
+      <c r="E7" s="16">
+        <v>19</v>
+      </c>
+      <c r="F7" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
+        <v>6</v>
+      </c>
+      <c r="B8" s="16">
+        <v>2</v>
+      </c>
+      <c r="C8" s="16">
+        <v>13</v>
+      </c>
+      <c r="E8" s="16">
+        <v>6</v>
+      </c>
+      <c r="F8" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
+        <v>7</v>
+      </c>
+      <c r="B9" s="16">
+        <v>8</v>
+      </c>
+      <c r="C9" s="16">
+        <v>17</v>
+      </c>
+      <c r="E9" s="16">
+        <v>17</v>
+      </c>
+      <c r="F9" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="16">
+        <v>8</v>
+      </c>
+      <c r="B10" s="16">
+        <v>10</v>
+      </c>
+      <c r="C10" s="16">
+        <v>21</v>
+      </c>
+      <c r="E10" s="16">
+        <v>17</v>
+      </c>
+      <c r="F10" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="16">
+        <v>9</v>
+      </c>
+      <c r="B11" s="16">
+        <v>9</v>
+      </c>
+      <c r="C11" s="16">
+        <v>18</v>
+      </c>
+      <c r="E11" s="16">
+        <v>5</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
+        <v>10</v>
+      </c>
+      <c r="B12" s="16">
+        <v>3</v>
+      </c>
+      <c r="C12" s="16">
+        <v>13</v>
+      </c>
+      <c r="E12" s="16">
+        <v>6</v>
+      </c>
+      <c r="F12" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="16">
+        <v>11</v>
+      </c>
+      <c r="B13" s="16">
+        <v>7</v>
+      </c>
+      <c r="C13" s="16">
+        <v>13</v>
+      </c>
+      <c r="E13" s="16">
+        <v>15</v>
+      </c>
+      <c r="F13" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
+        <v>12</v>
+      </c>
+      <c r="B14" s="16">
+        <v>10</v>
+      </c>
+      <c r="C14" s="16">
+        <v>16</v>
+      </c>
+      <c r="E14" s="16">
+        <v>12</v>
+      </c>
+      <c r="F14" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="16">
+        <v>13</v>
+      </c>
+      <c r="B15" s="16">
+        <v>7</v>
+      </c>
+      <c r="C15" s="16">
+        <v>15</v>
+      </c>
+      <c r="E15" s="16">
+        <v>15</v>
+      </c>
+      <c r="F15" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="16">
+        <v>9</v>
+      </c>
+      <c r="C16" s="16">
+        <v>19</v>
+      </c>
+      <c r="E16" s="16">
+        <v>20</v>
+      </c>
+      <c r="F16" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="16">
+        <v>15</v>
+      </c>
+      <c r="B17" s="16">
+        <v>18</v>
+      </c>
+      <c r="C17" s="16">
+        <v>22</v>
+      </c>
+      <c r="E17" s="16">
+        <v>13</v>
+      </c>
+      <c r="F17" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="16">
+        <v>16</v>
+      </c>
+      <c r="B18" s="16">
+        <v>19</v>
+      </c>
+      <c r="C18" s="16">
+        <v>25</v>
+      </c>
+      <c r="E18" s="16">
+        <v>12</v>
+      </c>
+      <c r="F18" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="16">
+        <v>17</v>
+      </c>
+      <c r="B19" s="16">
+        <v>12</v>
+      </c>
+      <c r="C19" s="16">
+        <v>17</v>
+      </c>
+      <c r="E19" s="16">
+        <v>1</v>
+      </c>
+      <c r="F19" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="16">
+        <v>18</v>
+      </c>
+      <c r="B20" s="16">
+        <v>13</v>
+      </c>
+      <c r="C20" s="16">
+        <v>16</v>
+      </c>
+      <c r="E20" s="16">
+        <v>14</v>
+      </c>
+      <c r="F20" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="16">
+        <v>19</v>
+      </c>
+      <c r="B21" s="16">
+        <v>21</v>
+      </c>
+      <c r="C21" s="16">
+        <v>21</v>
+      </c>
+      <c r="E21" s="16">
+        <v>7</v>
+      </c>
+      <c r="F21" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="16">
+        <v>20</v>
+      </c>
+      <c r="B22" s="16">
+        <v>14</v>
+      </c>
+      <c r="C22" s="16">
+        <v>15</v>
+      </c>
+      <c r="E22" s="16">
+        <v>16</v>
+      </c>
+      <c r="F22" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E23" s="16">
+        <v>16</v>
+      </c>
+      <c r="F23" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E24" s="16">
+        <v>2</v>
+      </c>
+      <c r="F24" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E25" s="16">
+        <v>7</v>
+      </c>
+      <c r="F25" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E26" s="16">
+        <v>20</v>
+      </c>
+      <c r="F26" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E27" s="16">
+        <v>3</v>
+      </c>
+      <c r="F27" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E28" s="16">
+        <v>8</v>
+      </c>
+      <c r="F28" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E29" s="16">
+        <v>7</v>
+      </c>
+      <c r="F29" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E30" s="16">
+        <v>15</v>
+      </c>
+      <c r="F30" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E31" s="16">
+        <v>19</v>
+      </c>
+      <c r="F31" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E32" s="16">
+        <v>2</v>
+      </c>
+      <c r="F32" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E33" s="16">
+        <v>6</v>
+      </c>
+      <c r="F33" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E34" s="16">
+        <v>2</v>
+      </c>
+      <c r="F34" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E35" s="16">
+        <v>17</v>
+      </c>
+      <c r="F35" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E36" s="16">
+        <v>7</v>
+      </c>
+      <c r="F36" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E37" s="16">
+        <v>13</v>
+      </c>
+      <c r="F37" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E38" s="16">
+        <v>13</v>
+      </c>
+      <c r="F38" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E39" s="16">
+        <v>4</v>
+      </c>
+      <c r="F39" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E40" s="16">
+        <v>8</v>
+      </c>
+      <c r="F40" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E41" s="16">
+        <v>8</v>
+      </c>
+      <c r="F41" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E42" s="16">
+        <v>1</v>
+      </c>
+      <c r="F42" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E43" s="16">
+        <v>12</v>
+      </c>
+      <c r="F43" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E44" s="16">
+        <v>7</v>
+      </c>
+      <c r="F44" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E45" s="16">
+        <v>6</v>
+      </c>
+      <c r="F45" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E46" s="16">
+        <v>7</v>
+      </c>
+      <c r="F46" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E47" s="16">
+        <v>11</v>
+      </c>
+      <c r="F47" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E48" s="16">
+        <v>3</v>
+      </c>
+      <c r="F48" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E49" s="16">
+        <v>18</v>
+      </c>
+      <c r="F49" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E50" s="16">
+        <v>19</v>
+      </c>
+      <c r="F50" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E51" s="16">
+        <v>11</v>
+      </c>
+      <c r="F51" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E52" s="16">
+        <v>8</v>
+      </c>
+      <c r="F52" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E53" s="16">
+        <v>14</v>
+      </c>
+      <c r="F53" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E54" s="16">
+        <v>1</v>
+      </c>
+      <c r="F54" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E55" s="16">
+        <v>13</v>
+      </c>
+      <c r="F55" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E56" s="16">
+        <v>2</v>
+      </c>
+      <c r="F56" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E57" s="16">
+        <v>8</v>
+      </c>
+      <c r="F57" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E58" s="16">
+        <v>13</v>
+      </c>
+      <c r="F58" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E59" s="16">
+        <v>18</v>
+      </c>
+      <c r="F59" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E60" s="16">
+        <v>12</v>
+      </c>
+      <c r="F60" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E61" s="16">
+        <v>3</v>
+      </c>
+      <c r="F61" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E62" s="16">
+        <v>10</v>
+      </c>
+      <c r="F62" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E63" s="16">
+        <v>3</v>
+      </c>
+      <c r="F63" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E64" s="16">
+        <v>20</v>
+      </c>
+      <c r="F64" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E65" s="16">
+        <v>16</v>
+      </c>
+      <c r="F65" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E66" s="16">
+        <v>18</v>
+      </c>
+      <c r="F66" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E67" s="16">
+        <v>7</v>
+      </c>
+      <c r="F67" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E68" s="16">
+        <v>5</v>
+      </c>
+      <c r="F68" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E69" s="16">
+        <v>15</v>
+      </c>
+      <c r="F69" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E70" s="16">
+        <v>5</v>
+      </c>
+      <c r="F70" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E71" s="16">
+        <v>6</v>
+      </c>
+      <c r="F71" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E72" s="16">
+        <v>16</v>
+      </c>
+      <c r="F72" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E73" s="16">
+        <v>16</v>
+      </c>
+      <c r="F73" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E74" s="16">
+        <v>16</v>
+      </c>
+      <c r="F74" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E75" s="16">
+        <v>4</v>
+      </c>
+      <c r="F75" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E76" s="16">
+        <v>4</v>
+      </c>
+      <c r="F76" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E77" s="16">
+        <v>1</v>
+      </c>
+      <c r="F77" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E78" s="16">
+        <v>14</v>
+      </c>
+      <c r="F78" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E79" s="16">
+        <v>17</v>
+      </c>
+      <c r="F79" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E80" s="16">
+        <v>19</v>
+      </c>
+      <c r="F80" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E81" s="16">
+        <v>10</v>
+      </c>
+      <c r="F81" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E82" s="16">
+        <v>7</v>
+      </c>
+      <c r="F82" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E83" s="16">
+        <v>15</v>
+      </c>
+      <c r="F83" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E84" s="16">
+        <v>7</v>
+      </c>
+      <c r="F84" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E85" s="16">
+        <v>15</v>
+      </c>
+      <c r="F85" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E86" s="16">
+        <v>18</v>
+      </c>
+      <c r="F86" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E87" s="16">
+        <v>17</v>
+      </c>
+      <c r="F87" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E88" s="16">
+        <v>9</v>
+      </c>
+      <c r="F88" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E89" s="16">
+        <v>1</v>
+      </c>
+      <c r="F89" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E90" s="16">
+        <v>16</v>
+      </c>
+      <c r="F90" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E91" s="16">
+        <v>4</v>
+      </c>
+      <c r="F91" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E92" s="16">
+        <v>15</v>
+      </c>
+      <c r="F92" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E93" s="16">
+        <v>16</v>
+      </c>
+      <c r="F93" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E94" s="16">
+        <v>12</v>
+      </c>
+      <c r="F94" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E95" s="16">
+        <v>4</v>
+      </c>
+      <c r="F95" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E96" s="16">
+        <v>1</v>
+      </c>
+      <c r="F96" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E97" s="16">
+        <v>18</v>
+      </c>
+      <c r="F97" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E98" s="16">
+        <v>6</v>
+      </c>
+      <c r="F98" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E99" s="16">
+        <v>6</v>
+      </c>
+      <c r="F99" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E100" s="16">
+        <v>9</v>
+      </c>
+      <c r="F100" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E101" s="16">
+        <v>1</v>
+      </c>
+      <c r="F101" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E102" s="16">
+        <v>10</v>
+      </c>
+      <c r="F102" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E103" s="16">
+        <v>5</v>
+      </c>
+      <c r="F103" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E104" s="16">
+        <v>5</v>
+      </c>
+      <c r="F104" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E105" s="16">
+        <v>17</v>
+      </c>
+      <c r="F105" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E106" s="16">
+        <v>18</v>
+      </c>
+      <c r="F106" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E107" s="16">
+        <v>9</v>
+      </c>
+      <c r="F107" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E108" s="16">
+        <v>16</v>
+      </c>
+      <c r="F108" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E109" s="16">
+        <v>17</v>
+      </c>
+      <c r="F109" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E110" s="16">
+        <v>20</v>
+      </c>
+      <c r="F110" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E111" s="16">
+        <v>17</v>
+      </c>
+      <c r="F111" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E112" s="16">
+        <v>7</v>
+      </c>
+      <c r="F112" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E113" s="16">
+        <v>9</v>
+      </c>
+      <c r="F113" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E114" s="16">
+        <v>13</v>
+      </c>
+      <c r="F114" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E115" s="16">
+        <v>12</v>
+      </c>
+      <c r="F115" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E116" s="16">
+        <v>7</v>
+      </c>
+      <c r="F116" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E117" s="16">
+        <v>13</v>
+      </c>
+      <c r="F117" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E118" s="16">
+        <v>2</v>
+      </c>
+      <c r="F118" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E119" s="16">
+        <v>9</v>
+      </c>
+      <c r="F119" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E120" s="16">
+        <v>11</v>
+      </c>
+      <c r="F120" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E121" s="16">
+        <v>14</v>
+      </c>
+      <c r="F121" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E122" s="16">
+        <v>17</v>
+      </c>
+      <c r="F122" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E123" s="16">
+        <v>14</v>
+      </c>
+      <c r="F123" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E124" s="16">
+        <v>15</v>
+      </c>
+      <c r="F124" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E125" s="16">
+        <v>14</v>
+      </c>
+      <c r="F125" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E126" s="16">
+        <v>6</v>
+      </c>
+      <c r="F126" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E127" s="16">
+        <v>19</v>
+      </c>
+      <c r="F127" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E128" s="16">
+        <v>15</v>
+      </c>
+      <c r="F128" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E129" s="16">
+        <v>1</v>
+      </c>
+      <c r="F129" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E130" s="16">
+        <v>12</v>
+      </c>
+      <c r="F130" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E131" s="16">
+        <v>15</v>
+      </c>
+      <c r="F131" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E132" s="16">
+        <v>5</v>
+      </c>
+      <c r="F132" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E133" s="16">
+        <v>14</v>
+      </c>
+      <c r="F133" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E134" s="16">
+        <v>11</v>
+      </c>
+      <c r="F134" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E135" s="16">
+        <v>8</v>
+      </c>
+      <c r="F135" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E136" s="16">
+        <v>15</v>
+      </c>
+      <c r="F136" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E137" s="16">
+        <v>19</v>
+      </c>
+      <c r="F137" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E138" s="16">
+        <v>13</v>
+      </c>
+      <c r="F138" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E139" s="16">
+        <v>16</v>
+      </c>
+      <c r="F139" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E140" s="16">
+        <v>10</v>
+      </c>
+      <c r="F140" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E141" s="16">
+        <v>2</v>
+      </c>
+      <c r="F141" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E142" s="16">
+        <v>8</v>
+      </c>
+      <c r="F142" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E143" s="16">
+        <v>17</v>
+      </c>
+      <c r="F143" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E144" s="16">
+        <v>11</v>
+      </c>
+      <c r="F144" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E145" s="16">
+        <v>3</v>
+      </c>
+      <c r="F145" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E146" s="16">
+        <v>8</v>
+      </c>
+      <c r="F146" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E147" s="16">
+        <v>6</v>
+      </c>
+      <c r="F147" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E148" s="16">
+        <v>6</v>
+      </c>
+      <c r="F148" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E149" s="16">
+        <v>12</v>
+      </c>
+      <c r="F149" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E150" s="16">
+        <v>16</v>
+      </c>
+      <c r="F150" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E151" s="16">
+        <v>9</v>
+      </c>
+      <c r="F151" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E152" s="16">
+        <v>19</v>
+      </c>
+      <c r="F152" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E153" s="16">
+        <v>19</v>
+      </c>
+      <c r="F153" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E154" s="16">
+        <v>14</v>
+      </c>
+      <c r="F154" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E155" s="16">
+        <v>17</v>
+      </c>
+      <c r="F155" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E156" s="16">
+        <v>9</v>
+      </c>
+      <c r="F156" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E157" s="16">
+        <v>8</v>
+      </c>
+      <c r="F157" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E158" s="16">
+        <v>9</v>
+      </c>
+      <c r="F158" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E159" s="16">
+        <v>2</v>
+      </c>
+      <c r="F159" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E160" s="16">
+        <v>12</v>
+      </c>
+      <c r="F160" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E161" s="16">
+        <v>18</v>
+      </c>
+      <c r="F161" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E162" s="16">
+        <v>20</v>
+      </c>
+      <c r="F162" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E163" s="16">
+        <v>13</v>
+      </c>
+      <c r="F163" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E164" s="16">
+        <v>14</v>
+      </c>
+      <c r="F164" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E165" s="16">
+        <v>16</v>
+      </c>
+      <c r="F165" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E166" s="16">
+        <v>7</v>
+      </c>
+      <c r="F166" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E167" s="16">
+        <v>3</v>
+      </c>
+      <c r="F167" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E168" s="16">
+        <v>14</v>
+      </c>
+      <c r="F168" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E169" s="16">
+        <v>16</v>
+      </c>
+      <c r="F169" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E170" s="16">
+        <v>13</v>
+      </c>
+      <c r="F170" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E171" s="16">
+        <v>4</v>
+      </c>
+      <c r="F171" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E172" s="16">
+        <v>19</v>
+      </c>
+      <c r="F172" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E173" s="16">
+        <v>15</v>
+      </c>
+      <c r="F173" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E174" s="16">
+        <v>12</v>
+      </c>
+      <c r="F174" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E175" s="16">
+        <v>5</v>
+      </c>
+      <c r="F175" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E176" s="16">
+        <v>11</v>
+      </c>
+      <c r="F176" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E177" s="16">
+        <v>15</v>
+      </c>
+      <c r="F177" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E178" s="16">
+        <v>8</v>
+      </c>
+      <c r="F178" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E179" s="16">
+        <v>14</v>
+      </c>
+      <c r="F179" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E180" s="16">
+        <v>9</v>
+      </c>
+      <c r="F180" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E181" s="16">
+        <v>5</v>
+      </c>
+      <c r="F181" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E182" s="16">
+        <v>18</v>
+      </c>
+      <c r="F182" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E183" s="16">
+        <v>15</v>
+      </c>
+      <c r="F183" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E184" s="16">
+        <v>20</v>
+      </c>
+      <c r="F184" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E185" s="16">
+        <v>19</v>
+      </c>
+      <c r="F185" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E186" s="16">
+        <v>15</v>
+      </c>
+      <c r="F186" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E187" s="16">
+        <v>15</v>
+      </c>
+      <c r="F187" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E188" s="16">
+        <v>14</v>
+      </c>
+      <c r="F188" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E189" s="16">
+        <v>1</v>
+      </c>
+      <c r="F189" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E190" s="16">
+        <v>20</v>
+      </c>
+      <c r="F190" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E191" s="16">
+        <v>8</v>
+      </c>
+      <c r="F191" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E192" s="16">
+        <v>20</v>
+      </c>
+      <c r="F192" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E193" s="16">
+        <v>13</v>
+      </c>
+      <c r="F193" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E194" s="16">
+        <v>17</v>
+      </c>
+      <c r="F194" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E195" s="16">
+        <v>3</v>
+      </c>
+      <c r="F195" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E196" s="16">
+        <v>4</v>
+      </c>
+      <c r="F196" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E197" s="16">
+        <v>3</v>
+      </c>
+      <c r="F197" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E198" s="16">
+        <v>12</v>
+      </c>
+      <c r="F198" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E199" s="16">
+        <v>16</v>
+      </c>
+      <c r="F199" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E200" s="16">
+        <v>17</v>
+      </c>
+      <c r="F200" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E201" s="16">
+        <v>20</v>
+      </c>
+      <c r="F201" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E202" s="16">
+        <v>16</v>
+      </c>
+      <c r="F202" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E203" s="16">
+        <v>6</v>
+      </c>
+      <c r="F203" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E204" s="16">
+        <v>18</v>
+      </c>
+      <c r="F204" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E205" s="16">
+        <v>14</v>
+      </c>
+      <c r="F205" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E206" s="16">
+        <v>14</v>
+      </c>
+      <c r="F206" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E207" s="16">
+        <v>20</v>
+      </c>
+      <c r="F207" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E208" s="16">
+        <v>1</v>
+      </c>
+      <c r="F208" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E209" s="16">
+        <v>20</v>
+      </c>
+      <c r="F209" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E210" s="16">
+        <v>7</v>
+      </c>
+      <c r="F210" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E211" s="16">
+        <v>4</v>
+      </c>
+      <c r="F211" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E212" s="16">
+        <v>1</v>
+      </c>
+      <c r="F212" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E213" s="16">
+        <v>9</v>
+      </c>
+      <c r="F213" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E214" s="16">
+        <v>10</v>
+      </c>
+      <c r="F214" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E215" s="16">
+        <v>13</v>
+      </c>
+      <c r="F215" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E216" s="16">
+        <v>8</v>
+      </c>
+      <c r="F216" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E217" s="16">
+        <v>2</v>
+      </c>
+      <c r="F217" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E218" s="16">
+        <v>2</v>
+      </c>
+      <c r="F218" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E219" s="16">
+        <v>8</v>
+      </c>
+      <c r="F219" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E220" s="16">
+        <v>20</v>
+      </c>
+      <c r="F220" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E221" s="16">
+        <v>5</v>
+      </c>
+      <c r="F221" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E222" s="16">
+        <v>15</v>
+      </c>
+      <c r="F222" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E223" s="16">
+        <v>3</v>
+      </c>
+      <c r="F223" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E224" s="16">
+        <v>18</v>
+      </c>
+      <c r="F224" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E225" s="16">
+        <v>16</v>
+      </c>
+      <c r="F225" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E226" s="16">
+        <v>8</v>
+      </c>
+      <c r="F226" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E227" s="16">
+        <v>12</v>
+      </c>
+      <c r="F227" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E228" s="16">
+        <v>10</v>
+      </c>
+      <c r="F228" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E229" s="16">
+        <v>9</v>
+      </c>
+      <c r="F229" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E230" s="16">
+        <v>17</v>
+      </c>
+      <c r="F230" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E231" s="16">
+        <v>12</v>
+      </c>
+      <c r="F231" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E232" s="16">
+        <v>1</v>
+      </c>
+      <c r="F232" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E233" s="16">
+        <v>10</v>
+      </c>
+      <c r="F233" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E234" s="16">
+        <v>11</v>
+      </c>
+      <c r="F234" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E235" s="16">
+        <v>18</v>
+      </c>
+      <c r="F235" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E236" s="16">
+        <v>1</v>
+      </c>
+      <c r="F236" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E237" s="16">
+        <v>14</v>
+      </c>
+      <c r="F237" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E238" s="16">
+        <v>19</v>
+      </c>
+      <c r="F238" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E239" s="16">
+        <v>14</v>
+      </c>
+      <c r="F239" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E240" s="16">
+        <v>17</v>
+      </c>
+      <c r="F240" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E241" s="16">
+        <v>1</v>
+      </c>
+      <c r="F241" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E242" s="16">
+        <v>3</v>
+      </c>
+      <c r="F242" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E243" s="16">
+        <v>7</v>
+      </c>
+      <c r="F243" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E244" s="16">
+        <v>11</v>
+      </c>
+      <c r="F244" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E245" s="16">
+        <v>18</v>
+      </c>
+      <c r="F245" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E246" s="16">
+        <v>18</v>
+      </c>
+      <c r="F246" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E247" s="16">
+        <v>15</v>
+      </c>
+      <c r="F247" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E248" s="16">
+        <v>14</v>
+      </c>
+      <c r="F248" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E249" s="16">
+        <v>19</v>
+      </c>
+      <c r="F249" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E250" s="16">
+        <v>18</v>
+      </c>
+      <c r="F250" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E251" s="16">
+        <v>19</v>
+      </c>
+      <c r="F251" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E252" s="16">
+        <v>20</v>
+      </c>
+      <c r="F252" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E253" s="16">
+        <v>10</v>
+      </c>
+      <c r="F253" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E254" s="16">
+        <v>14</v>
+      </c>
+      <c r="F254" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E255" s="16">
+        <v>4</v>
+      </c>
+      <c r="F255" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E256" s="16">
+        <v>14</v>
+      </c>
+      <c r="F256" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E257" s="16">
+        <v>5</v>
+      </c>
+      <c r="F257" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E258" s="16">
+        <v>4</v>
+      </c>
+      <c r="F258" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E259" s="16">
+        <v>13</v>
+      </c>
+      <c r="F259" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E260" s="16">
+        <v>9</v>
+      </c>
+      <c r="F260" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E261" s="16">
+        <v>16</v>
+      </c>
+      <c r="F261" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E262" s="16">
+        <v>9</v>
+      </c>
+      <c r="F262" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E263" s="16">
+        <v>9</v>
+      </c>
+      <c r="F263" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E264" s="16">
+        <v>12</v>
+      </c>
+      <c r="F264" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E265" s="16">
+        <v>4</v>
+      </c>
+      <c r="F265" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E266" s="16">
+        <v>7</v>
+      </c>
+      <c r="F266" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E267" s="16">
+        <v>19</v>
+      </c>
+      <c r="F267" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E268" s="16">
+        <v>4</v>
+      </c>
+      <c r="F268" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E269" s="16">
+        <v>3</v>
+      </c>
+      <c r="F269" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E270" s="16">
+        <v>5</v>
+      </c>
+      <c r="F270" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E271" s="16">
+        <v>9</v>
+      </c>
+      <c r="F271" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E272" s="16">
+        <v>8</v>
+      </c>
+      <c r="F272" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E273" s="16">
+        <v>8</v>
+      </c>
+      <c r="F273" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E274" s="16">
+        <v>4</v>
+      </c>
+      <c r="F274" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E275" s="16">
+        <v>5</v>
+      </c>
+      <c r="F275" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E276" s="16">
+        <v>19</v>
+      </c>
+      <c r="F276" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E277" s="16">
+        <v>9</v>
+      </c>
+      <c r="F277" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E278" s="16">
+        <v>19</v>
+      </c>
+      <c r="F278" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E279" s="16">
+        <v>20</v>
+      </c>
+      <c r="F279" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E280" s="16">
+        <v>15</v>
+      </c>
+      <c r="F280" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E281" s="16">
+        <v>13</v>
+      </c>
+      <c r="F281" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E282" s="16">
+        <v>2</v>
+      </c>
+      <c r="F282" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E283" s="16">
+        <v>1</v>
+      </c>
+      <c r="F283" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E284" s="16">
+        <v>12</v>
+      </c>
+      <c r="F284" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E285" s="16">
+        <v>10</v>
+      </c>
+      <c r="F285" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E286" s="16">
+        <v>2</v>
+      </c>
+      <c r="F286" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E287" s="16">
+        <v>13</v>
+      </c>
+      <c r="F287" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E288" s="16">
+        <v>2</v>
+      </c>
+      <c r="F288" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E289" s="16">
+        <v>10</v>
+      </c>
+      <c r="F289" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E290" s="16">
+        <v>8</v>
+      </c>
+      <c r="F290" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E291" s="16">
+        <v>15</v>
+      </c>
+      <c r="F291" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E292" s="16">
+        <v>16</v>
+      </c>
+      <c r="F292" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E293" s="16">
+        <v>7</v>
+      </c>
+      <c r="F293" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E294" s="16">
+        <v>4</v>
+      </c>
+      <c r="F294" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E295" s="16">
+        <v>11</v>
+      </c>
+      <c r="F295" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E296" s="16">
+        <v>11</v>
+      </c>
+      <c r="F296" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E297" s="16">
+        <v>19</v>
+      </c>
+      <c r="F297" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E298" s="16">
+        <v>2</v>
+      </c>
+      <c r="F298" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E299" s="16">
+        <v>1</v>
+      </c>
+      <c r="F299" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E300" s="16">
+        <v>1</v>
+      </c>
+      <c r="F300" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E301" s="16">
+        <v>19</v>
+      </c>
+      <c r="F301" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E302" s="16">
+        <v>18</v>
+      </c>
+      <c r="F302" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E303" s="16">
+        <v>20</v>
+      </c>
+      <c r="F303" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E304" s="16">
+        <v>10</v>
+      </c>
+      <c r="F304" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E305" s="16">
+        <v>16</v>
+      </c>
+      <c r="F305" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E306" s="16">
+        <v>16</v>
+      </c>
+      <c r="F306" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E307" s="16">
+        <v>1</v>
+      </c>
+      <c r="F307" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E308" s="16">
+        <v>8</v>
+      </c>
+      <c r="F308" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E309" s="16">
+        <v>3</v>
+      </c>
+      <c r="F309" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E310" s="16">
+        <v>9</v>
+      </c>
+      <c r="F310" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E311" s="16">
+        <v>16</v>
+      </c>
+      <c r="F311" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E312" s="16">
+        <v>5</v>
+      </c>
+      <c r="F312" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E313" s="16">
+        <v>4</v>
+      </c>
+      <c r="F313" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E314" s="16">
+        <v>10</v>
+      </c>
+      <c r="F314" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E315" s="16">
+        <v>15</v>
+      </c>
+      <c r="F315" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E316" s="16">
+        <v>6</v>
+      </c>
+      <c r="F316" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E317" s="16">
+        <v>19</v>
+      </c>
+      <c r="F317" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E318" s="16">
+        <v>5</v>
+      </c>
+      <c r="F318" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E319" s="16">
+        <v>11</v>
+      </c>
+      <c r="F319" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E320" s="16">
+        <v>11</v>
+      </c>
+      <c r="F320" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E321" s="16">
+        <v>16</v>
+      </c>
+      <c r="F321" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E322" s="16">
+        <v>1</v>
+      </c>
+      <c r="F322" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E323" s="16">
+        <v>15</v>
+      </c>
+      <c r="F323" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E324" s="16">
+        <v>8</v>
+      </c>
+      <c r="F324" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E325" s="16">
+        <v>16</v>
+      </c>
+      <c r="F325" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E326" s="16">
+        <v>2</v>
+      </c>
+      <c r="F326" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E327" s="16">
+        <v>18</v>
+      </c>
+      <c r="F327" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E328" s="16">
+        <v>19</v>
+      </c>
+      <c r="F328" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E329" s="16">
+        <v>17</v>
+      </c>
+      <c r="F329" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E330" s="16">
+        <v>16</v>
+      </c>
+      <c r="F330" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E331" s="16">
+        <v>9</v>
+      </c>
+      <c r="F331" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E332" s="16">
+        <v>7</v>
+      </c>
+      <c r="F332" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E333" s="16">
+        <v>8</v>
+      </c>
+      <c r="F333" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E334" s="16">
+        <v>6</v>
+      </c>
+      <c r="F334" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E335" s="16">
+        <v>17</v>
+      </c>
+      <c r="F335" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E336" s="16">
+        <v>8</v>
+      </c>
+      <c r="F336" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E337" s="16">
+        <v>2</v>
+      </c>
+      <c r="F337" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E338" s="16">
+        <v>11</v>
+      </c>
+      <c r="F338" s="16">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50761AD1-69CE-417E-B5CB-5C6E2068EACC}">
+  <dimension ref="A1:E270"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B56" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B59" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B60" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B61" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B62" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B63" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B64" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B65" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B66" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B67" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B68" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B69" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B70" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B71" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B72" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B73" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B74" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B75" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B76" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B77" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B78" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B79" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B80" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B81" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B82" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B83" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B84" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B85" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B86" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B87" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B88" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B89" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B90" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B91" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B92" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B93" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B94" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B95" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B96" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B97" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B98" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B99" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B100" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B101" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B102" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B103" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B104" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B105" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B106" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B107" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B108" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B109" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B110" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B111" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B112" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B113" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B114" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B115" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B116" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B117" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B118" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B119" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B120" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B121" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B122" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B123" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B124" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B125" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B126" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B127" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B128" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B129" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B130" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B131" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B132" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B133" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B134" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B135" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B136" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B137" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B138" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B139" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B140" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B141" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B142" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B143" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B144" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B145" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B146" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B147" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B148" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B149" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B150" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B151" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B152" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B153" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B154" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B155" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B156" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B157" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B158" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B159" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B160" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B161" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B162" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B163" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B164" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B165" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B166" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B167" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B168" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B169" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B170" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B171" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B172" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B173" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B174" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B175" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B176" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B177" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B178" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B179" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B180" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B181" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B182" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B183" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B184" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B185" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B186" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B187" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B188" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B189" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B190" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B191" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B192" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B193" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B194" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B195" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B196" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B197" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B198" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B199" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B200" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B201" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B202" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B203" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B204" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B205" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B206" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B207" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B208" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B209" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B210" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B211" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B212" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B213" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B214" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B215" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B216" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B217" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B218" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B219" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B220" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B221" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B222" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B223" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B224" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B225" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B226" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B227" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B228" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B229" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B230" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B231" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B232" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B233" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B234" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B235" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B236" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B237" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B238" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B239" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B240" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B241" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B242" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B243" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B244" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B245" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B246" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B247" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B248" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B249" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B250" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B251" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B252" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B253" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B254" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B255" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B256" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B257" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B258" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B259" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B260" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B261" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B262" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B263" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B264" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B265" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B266" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B267" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B268" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B269" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B270" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>